--- a/results/mp/logistic/home-spam/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/home-spam/confidence/42/stop-words-0.1/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,112 +55,127 @@
     <t>waste</t>
   </si>
   <si>
+    <t>plates</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>poorly</t>
+  </si>
+  <si>
     <t>useless</t>
   </si>
   <si>
-    <t>plates</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>poorly</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
+    <t>disappointing</t>
+  </si>
+  <si>
     <t>glasses</t>
   </si>
   <si>
+    <t>filters</t>
+  </si>
+  <si>
+    <t>junk</t>
+  </si>
+  <si>
+    <t>difficult</t>
+  </si>
+  <si>
+    <t>thin</t>
+  </si>
+  <si>
+    <t>maybe</t>
+  </si>
+  <si>
+    <t>send</t>
+  </si>
+  <si>
+    <t>defective</t>
+  </si>
+  <si>
     <t>spray</t>
   </si>
   <si>
+    <t>cracked</t>
+  </si>
+  <si>
+    <t>seal</t>
+  </si>
+  <si>
+    <t>not</t>
+  </si>
+  <si>
+    <t>unless</t>
+  </si>
+  <si>
     <t>returning</t>
   </si>
   <si>
-    <t>junk</t>
-  </si>
-  <si>
-    <t>difficult</t>
-  </si>
-  <si>
-    <t>filters</t>
-  </si>
-  <si>
-    <t>thin</t>
-  </si>
-  <si>
-    <t>cracked</t>
-  </si>
-  <si>
-    <t>disappointing</t>
-  </si>
-  <si>
-    <t>maybe</t>
-  </si>
-  <si>
-    <t>unless</t>
+    <t>however</t>
+  </si>
+  <si>
+    <t>egg</t>
   </si>
   <si>
     <t>months</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>seal</t>
-  </si>
-  <si>
     <t>ok</t>
   </si>
   <si>
-    <t>send</t>
+    <t>fell</t>
+  </si>
+  <si>
+    <t>cheap</t>
+  </si>
+  <si>
+    <t>half</t>
   </si>
   <si>
     <t>disappointed</t>
   </si>
   <si>
-    <t>egg</t>
-  </si>
-  <si>
-    <t>fell</t>
+    <t>china</t>
+  </si>
+  <si>
+    <t>plastic</t>
+  </si>
+  <si>
+    <t>grind</t>
+  </si>
+  <si>
+    <t>broken</t>
+  </si>
+  <si>
+    <t>lid</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
   <si>
     <t>iron</t>
   </si>
   <si>
-    <t>cheap</t>
-  </si>
-  <si>
-    <t>grind</t>
-  </si>
-  <si>
-    <t>half</t>
-  </si>
-  <si>
     <t>filter</t>
   </si>
   <si>
-    <t>broken</t>
-  </si>
-  <si>
-    <t>thick</t>
-  </si>
-  <si>
-    <t>china</t>
-  </si>
-  <si>
-    <t>plastic</t>
+    <t>instructions</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>received</t>
   </si>
   <si>
     <t>side</t>
   </si>
   <si>
-    <t>lid</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>sent</t>
   </si>
   <si>
     <t>guess</t>
@@ -169,64 +184,187 @@
     <t>sharpe</t>
   </si>
   <si>
-    <t>received</t>
+    <t>off</t>
+  </si>
+  <si>
+    <t>okay</t>
   </si>
   <si>
     <t>worked</t>
   </si>
   <si>
+    <t>but</t>
+  </si>
+  <si>
     <t>back</t>
   </si>
   <si>
-    <t>unit</t>
+    <t>doesn</t>
   </si>
   <si>
     <t>machine</t>
   </si>
   <si>
+    <t>then</t>
+  </si>
+  <si>
+    <t>fl</t>
+  </si>
+  <si>
+    <t>did</t>
+  </si>
+  <si>
     <t>less</t>
   </si>
   <si>
-    <t>rust</t>
-  </si>
-  <si>
     <t>piece</t>
   </si>
   <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>fl</t>
+    <t>t</t>
+  </si>
+  <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>didn</t>
+  </si>
+  <si>
+    <t>hard</t>
   </si>
   <si>
     <t>work</t>
   </si>
   <si>
+    <t>fit</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
     <t>way</t>
   </si>
   <si>
-    <t>hold</t>
-  </si>
-  <si>
-    <t>fit</t>
+    <t>"</t>
+  </si>
+  <si>
+    <t>even</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>small</t>
   </si>
   <si>
+    <t>does</t>
+  </si>
+  <si>
+    <t>its</t>
+  </si>
+  <si>
+    <t>was</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>too</t>
+  </si>
+  <si>
+    <t>do</t>
+  </si>
+  <si>
+    <t>if</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>out</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
+    <t>or</t>
+  </si>
+  <si>
+    <t>the</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
     <t>would</t>
   </si>
   <si>
-    <t>use</t>
+    <t>up</t>
+  </si>
+  <si>
+    <t>that</t>
+  </si>
+  <si>
+    <t>will</t>
+  </si>
+  <si>
+    <t>when</t>
+  </si>
+  <si>
+    <t>it</t>
+  </si>
+  <si>
+    <t>than</t>
+  </si>
+  <si>
+    <t>in</t>
+  </si>
+  <si>
+    <t>of</t>
+  </si>
+  <si>
+    <t>be</t>
+  </si>
+  <si>
+    <t>are</t>
+  </si>
+  <si>
+    <t>to</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>have</t>
+  </si>
+  <si>
+    <t>is</t>
+  </si>
+  <si>
+    <t>with</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>as</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>this</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>for</t>
+  </si>
+  <si>
+    <t>and</t>
   </si>
   <si>
     <t>negative</t>
@@ -235,15 +373,15 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>awesome</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
     <t>loves</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>perfect</t>
-  </si>
-  <si>
     <t>love</t>
   </si>
   <si>
@@ -256,19 +394,22 @@
     <t>perfectly</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
     <t>highly</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
     <t>easy</t>
+  </si>
+  <si>
+    <t>!</t>
   </si>
   <si>
     <t>positive</t>
@@ -629,7 +770,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q65"/>
+  <dimension ref="A1:Q111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -637,10 +778,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>71</v>
+        <v>117</v>
       </c>
       <c r="J1" t="s">
-        <v>85</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -698,13 +839,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9646017699115044</v>
+        <v>0.9557522123893806</v>
       </c>
       <c r="C3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D3">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -716,19 +857,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>72</v>
+        <v>118</v>
       </c>
       <c r="K3">
-        <v>0.8515625</v>
+        <v>0.8125</v>
       </c>
       <c r="L3">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="M3">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -740,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -748,13 +889,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9090909090909091</v>
+        <v>0.9191919191919192</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D4">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -766,19 +907,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="K4">
-        <v>0.7741935483870968</v>
+        <v>0.7826086956521739</v>
       </c>
       <c r="L4">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="M4">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -790,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -798,13 +939,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9056603773584906</v>
+        <v>0.8867924528301887</v>
       </c>
       <c r="C5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D5">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -816,19 +957,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>74</v>
+        <v>120</v>
       </c>
       <c r="K5">
-        <v>0.7608695652173914</v>
+        <v>0.7050847457627119</v>
       </c>
       <c r="L5">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="M5">
-        <v>35</v>
+        <v>208</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -840,7 +981,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>11</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -869,16 +1010,16 @@
         <v>7</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>75</v>
+        <v>121</v>
       </c>
       <c r="K6">
-        <v>0.7220338983050848</v>
+        <v>0.6881720430107527</v>
       </c>
       <c r="L6">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="M6">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -890,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>82</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -919,16 +1060,16 @@
         <v>17</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>76</v>
+        <v>122</v>
       </c>
       <c r="K7">
-        <v>0.5975232198142415</v>
+        <v>0.6099071207430341</v>
       </c>
       <c r="L7">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="M7">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -940,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -948,13 +1089,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.85</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D8">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -966,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="K8">
-        <v>0.5108225108225108</v>
+        <v>0.4978354978354979</v>
       </c>
       <c r="L8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="M8">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -990,7 +1131,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>113</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -998,13 +1139,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8421052631578947</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="C9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1019,16 +1160,16 @@
         <v>3</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="K9">
-        <v>0.4545454545454545</v>
+        <v>0.4935064935064935</v>
       </c>
       <c r="L9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="M9">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1040,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1048,13 +1189,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8333333333333334</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D10">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1066,19 +1207,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
       <c r="K10">
-        <v>0.3815789473684211</v>
+        <v>0.3289473684210527</v>
       </c>
       <c r="L10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="M10">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1090,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1098,13 +1239,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.7931034482758621</v>
+        <v>0.825</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1116,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="K11">
-        <v>0.2457142857142857</v>
+        <v>0.2345679012345679</v>
       </c>
       <c r="L11">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="M11">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1140,7 +1281,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>132</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1148,13 +1289,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.7675675675675676</v>
+        <v>0.7891891891891892</v>
       </c>
       <c r="C12">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D12">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1166,19 +1307,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>81</v>
+        <v>127</v>
       </c>
       <c r="K12">
-        <v>0.2072072072072072</v>
+        <v>0.2228571428571429</v>
       </c>
       <c r="L12">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1190,7 +1331,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>88</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1198,13 +1339,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.7619047619047619</v>
+        <v>0.7407407407407407</v>
       </c>
       <c r="C13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D13">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1216,19 +1357,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>82</v>
+        <v>128</v>
       </c>
       <c r="K13">
-        <v>0.2054794520547945</v>
+        <v>0.1685393258426966</v>
       </c>
       <c r="L13">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="M13">
-        <v>15</v>
+        <v>210</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1240,7 +1381,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>58</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1248,13 +1389,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.7575757575757576</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1266,19 +1407,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>83</v>
+        <v>129</v>
       </c>
       <c r="K14">
-        <v>0.1733547351524879</v>
+        <v>0.1531531531531531</v>
       </c>
       <c r="L14">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="M14">
-        <v>216</v>
+        <v>17</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1290,7 +1431,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>1030</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1298,13 +1439,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.75</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="C15">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="D15">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1316,19 +1457,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="K15">
-        <v>0.05342465753424658</v>
+        <v>0.06438356164383562</v>
       </c>
       <c r="L15">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="M15">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1340,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>691</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1348,13 +1489,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.7307692307692307</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="C16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1366,7 +1507,31 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="K16">
+        <v>0.01880424300867888</v>
+      </c>
+      <c r="L16">
+        <v>39</v>
+      </c>
+      <c r="M16">
+        <v>42</v>
+      </c>
+      <c r="N16">
+        <v>0.93</v>
+      </c>
+      <c r="O16">
+        <v>0.06999999999999995</v>
+      </c>
+      <c r="P16" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q16">
+        <v>2035</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1374,13 +1539,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7058823529411765</v>
+        <v>0.6911764705882353</v>
       </c>
       <c r="C17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D17">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1392,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1400,13 +1565,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.7045454545454546</v>
+        <v>0.6712328767123288</v>
       </c>
       <c r="C18">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="D18">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1418,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>13</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1426,13 +1591,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.684931506849315</v>
+        <v>0.660377358490566</v>
       </c>
       <c r="C19">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="D19">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1452,13 +1617,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.6764705882352942</v>
+        <v>0.65625</v>
       </c>
       <c r="C20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1478,13 +1643,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6666666666666666</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D21">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1496,7 +1661,7 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1504,13 +1669,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.660377358490566</v>
+        <v>0.6363636363636364</v>
       </c>
       <c r="C22">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D22">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1522,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1530,13 +1695,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.6071428571428571</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D23">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1548,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1556,13 +1721,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.5660377358490566</v>
+        <v>0.6176470588235294</v>
       </c>
       <c r="C24">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="D24">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1574,7 +1739,7 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1582,13 +1747,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5641025641025641</v>
+        <v>0.6126984126984127</v>
       </c>
       <c r="C25">
-        <v>44</v>
+        <v>1158</v>
       </c>
       <c r="D25">
-        <v>44</v>
+        <v>1158</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1600,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>34</v>
+        <v>732</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1608,13 +1773,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5588235294117647</v>
+        <v>0.6071428571428571</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1626,7 +1791,7 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1634,13 +1799,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5333333333333333</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C27">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="D27">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1652,7 +1817,7 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>63</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1660,13 +1825,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.53125</v>
+        <v>0.5512820512820513</v>
       </c>
       <c r="C28">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="D28">
-        <v>17</v>
+        <v>43</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1678,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>15</v>
+        <v>35</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1686,13 +1851,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5193798449612403</v>
+        <v>0.5483870967741935</v>
       </c>
       <c r="C29">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="D29">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1704,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>62</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1712,13 +1877,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5161290322580645</v>
+        <v>0.5377358490566038</v>
       </c>
       <c r="C30">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="D30">
-        <v>16</v>
+        <v>57</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1730,7 +1895,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>15</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1738,13 +1903,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.5142857142857142</v>
+        <v>0.5185185185185185</v>
       </c>
       <c r="C31">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D31">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1756,7 +1921,7 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>17</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1764,13 +1929,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4888888888888889</v>
+        <v>0.5142857142857142</v>
       </c>
       <c r="C32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -1782,7 +1947,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1790,25 +1955,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4871794871794872</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C33">
+        <v>100</v>
+      </c>
+      <c r="D33">
+        <v>100</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33">
         <v>95</v>
-      </c>
-      <c r="D33">
-        <v>95</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1816,13 +1981,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.4647887323943662</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1834,7 +1999,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>38</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1842,13 +2007,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.4545454545454545</v>
+        <v>0.4651162790697674</v>
       </c>
       <c r="C35">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="D35">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1860,7 +2025,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>24</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1868,13 +2033,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.4482758620689655</v>
+        <v>0.4571428571428571</v>
       </c>
       <c r="C36">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="D36">
-        <v>39</v>
+        <v>16</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -1886,7 +2051,7 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1894,13 +2059,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.4444444444444444</v>
+        <v>0.4459459459459459</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="D37">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1912,7 +2077,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>50</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1920,13 +2085,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.4411764705882353</v>
+        <v>0.4366197183098591</v>
       </c>
       <c r="C38">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="D38">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -1938,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>19</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1946,13 +2111,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.4285714285714285</v>
+        <v>0.4222222222222222</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="D39">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1964,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>20</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1972,13 +2137,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.4256756756756757</v>
+        <v>0.415929203539823</v>
       </c>
       <c r="C40">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="D40">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -1990,7 +2155,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>85</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1998,13 +2163,13 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.3888888888888889</v>
+        <v>0.3786407766990291</v>
       </c>
       <c r="C41">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="D41">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E41">
         <v>0</v>
@@ -2016,7 +2181,7 @@
         <v>0</v>
       </c>
       <c r="H41">
-        <v>33</v>
+        <v>64</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2024,13 +2189,13 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.3628318584070797</v>
+        <v>0.3777777777777778</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2042,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="H42">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2050,13 +2215,13 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.3203883495145631</v>
+        <v>0.367816091954023</v>
       </c>
       <c r="C43">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D43">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E43">
         <v>0</v>
@@ -2068,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>70</v>
+        <v>55</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2076,7 +2241,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.2884615384615384</v>
+        <v>0.3571428571428572</v>
       </c>
       <c r="C44">
         <v>15</v>
@@ -2094,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="H44">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2102,13 +2267,13 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.288135593220339</v>
+        <v>0.3405405405405406</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="D45">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="E45">
         <v>0</v>
@@ -2120,7 +2285,7 @@
         <v>0</v>
       </c>
       <c r="H45">
-        <v>42</v>
+        <v>244</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2128,13 +2293,13 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.2692307692307692</v>
+        <v>0.3365384615384616</v>
       </c>
       <c r="C46">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2146,7 +2311,7 @@
         <v>0</v>
       </c>
       <c r="H46">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2154,13 +2319,13 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.2513966480446927</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="D47">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="E47">
         <v>0</v>
@@ -2172,7 +2337,7 @@
         <v>0</v>
       </c>
       <c r="H47">
-        <v>134</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2180,25 +2345,25 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.2435897435897436</v>
+        <v>0.3090909090909091</v>
       </c>
       <c r="C48">
+        <v>17</v>
+      </c>
+      <c r="D48">
+        <v>17</v>
+      </c>
+      <c r="E48">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H48">
         <v>38</v>
-      </c>
-      <c r="D48">
-        <v>38</v>
-      </c>
-      <c r="E48">
-        <v>0</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48" t="b">
-        <v>0</v>
-      </c>
-      <c r="H48">
-        <v>118</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2206,13 +2371,13 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.2368421052631579</v>
+        <v>0.2884615384615384</v>
       </c>
       <c r="C49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D49">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2224,7 +2389,7 @@
         <v>0</v>
       </c>
       <c r="H49">
-        <v>58</v>
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2232,13 +2397,13 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.2268041237113402</v>
+        <v>0.2711864406779661</v>
       </c>
       <c r="C50">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="D50">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E50">
         <v>0</v>
@@ -2250,7 +2415,7 @@
         <v>0</v>
       </c>
       <c r="H50">
-        <v>75</v>
+        <v>43</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2258,13 +2423,13 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.2068965517241379</v>
+        <v>0.2602230483271376</v>
       </c>
       <c r="C51">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="D51">
-        <v>18</v>
+        <v>70</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2276,7 +2441,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>69</v>
+        <v>199</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2284,13 +2449,13 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.1975308641975309</v>
+        <v>0.2575757575757576</v>
       </c>
       <c r="C52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D52">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2302,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="H52">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2310,13 +2475,13 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1818181818181818</v>
+        <v>0.2569832402234637</v>
       </c>
       <c r="C53">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="D53">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2328,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H53">
-        <v>81</v>
+        <v>133</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2336,13 +2501,13 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.1504424778761062</v>
+        <v>0.2522522522522522</v>
       </c>
       <c r="C54">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="D54">
-        <v>17</v>
+        <v>364</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2354,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="H54">
-        <v>96</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2362,13 +2527,13 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="C55">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="D55">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2380,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="H55">
-        <v>85</v>
+        <v>117</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2388,13 +2553,13 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1482479784366577</v>
+        <v>0.24</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D56">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E56">
         <v>0</v>
@@ -2406,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="H56">
-        <v>316</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2414,13 +2579,13 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.1390728476821192</v>
+        <v>0.2371134020618557</v>
       </c>
       <c r="C57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D57">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E57">
         <v>0</v>
@@ -2432,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="H57">
-        <v>130</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2440,13 +2605,13 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1379310344827586</v>
+        <v>0.2096774193548387</v>
       </c>
       <c r="C58">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D58">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E58">
         <v>0</v>
@@ -2458,7 +2623,7 @@
         <v>0</v>
       </c>
       <c r="H58">
-        <v>125</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2466,13 +2631,13 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="C59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D59">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E59">
         <v>0</v>
@@ -2484,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="H59">
-        <v>175</v>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2492,13 +2657,13 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.1021505376344086</v>
+        <v>0.1923076923076923</v>
       </c>
       <c r="C60">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="E60">
         <v>0</v>
@@ -2510,7 +2675,7 @@
         <v>0</v>
       </c>
       <c r="H60">
-        <v>167</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2518,13 +2683,13 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.09047619047619047</v>
+        <v>0.1724137931034483</v>
       </c>
       <c r="C61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D61">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2536,7 +2701,7 @@
         <v>0</v>
       </c>
       <c r="H61">
-        <v>191</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2544,13 +2709,13 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.07823129251700681</v>
+        <v>0.1515151515151515</v>
       </c>
       <c r="C62">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="D62">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2562,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>271</v>
+        <v>84</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2570,25 +2735,25 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.04438642297650131</v>
+        <v>0.1431111111111111</v>
       </c>
       <c r="C63">
-        <v>34</v>
+        <v>161</v>
       </c>
       <c r="D63">
-        <v>35</v>
+        <v>161</v>
       </c>
       <c r="E63">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="G63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>732</v>
+        <v>964</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2596,13 +2761,13 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.0380952380952381</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C64">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D64">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2614,7 +2779,7 @@
         <v>0</v>
       </c>
       <c r="H64">
-        <v>707</v>
+        <v>108</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2622,25 +2787,1221 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.0129757785467128</v>
+        <v>0.1401273885350318</v>
       </c>
       <c r="C65">
+        <v>22</v>
+      </c>
+      <c r="D65">
+        <v>22</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66">
+        <v>0.1380952380952381</v>
+      </c>
+      <c r="C66">
+        <v>29</v>
+      </c>
+      <c r="D66">
+        <v>29</v>
+      </c>
+      <c r="E66">
+        <v>0</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67">
+        <v>0.1320754716981132</v>
+      </c>
+      <c r="C67">
+        <v>49</v>
+      </c>
+      <c r="D67">
+        <v>49</v>
+      </c>
+      <c r="E67">
+        <v>0</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B68">
+        <v>0.115</v>
+      </c>
+      <c r="C68">
+        <v>23</v>
+      </c>
+      <c r="D68">
+        <v>23</v>
+      </c>
+      <c r="E68">
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="b">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B69">
+        <v>0.1103448275862069</v>
+      </c>
+      <c r="C69">
+        <v>16</v>
+      </c>
+      <c r="D69">
+        <v>16</v>
+      </c>
+      <c r="E69">
+        <v>0</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70">
+        <v>0.1059602649006623</v>
+      </c>
+      <c r="C70">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>16</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="b">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B71">
+        <v>0.1041666666666667</v>
+      </c>
+      <c r="C71">
         <v>15</v>
       </c>
-      <c r="D65">
+      <c r="D71">
+        <v>15</v>
+      </c>
+      <c r="E71">
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="b">
+        <v>0</v>
+      </c>
+      <c r="H71">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B72">
+        <v>0.09550561797752809</v>
+      </c>
+      <c r="C72">
+        <v>17</v>
+      </c>
+      <c r="D72">
+        <v>17</v>
+      </c>
+      <c r="E72">
+        <v>0</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B73">
+        <v>0.09139784946236559</v>
+      </c>
+      <c r="C73">
+        <v>17</v>
+      </c>
+      <c r="D73">
+        <v>17</v>
+      </c>
+      <c r="E73">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H73">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B74">
+        <v>0.06802721088435375</v>
+      </c>
+      <c r="C74">
+        <v>20</v>
+      </c>
+      <c r="D74">
+        <v>20</v>
+      </c>
+      <c r="E74">
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B75">
+        <v>0.06716417910447761</v>
+      </c>
+      <c r="C75">
+        <v>36</v>
+      </c>
+      <c r="D75">
+        <v>36</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76">
+        <v>0.06696428571428571</v>
+      </c>
+      <c r="C76">
+        <v>15</v>
+      </c>
+      <c r="D76">
+        <v>15</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B77">
+        <v>0.06109822119102862</v>
+      </c>
+      <c r="C77">
+        <v>79</v>
+      </c>
+      <c r="D77">
+        <v>79</v>
+      </c>
+      <c r="E77">
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="b">
+        <v>0</v>
+      </c>
+      <c r="H77">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B78">
+        <v>0.05845511482254697</v>
+      </c>
+      <c r="C78">
+        <v>56</v>
+      </c>
+      <c r="D78">
+        <v>56</v>
+      </c>
+      <c r="E78">
+        <v>0</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B79">
+        <v>0.05591397849462366</v>
+      </c>
+      <c r="C79">
+        <v>26</v>
+      </c>
+      <c r="D79">
+        <v>26</v>
+      </c>
+      <c r="E79">
+        <v>0</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B80">
+        <v>0.05449591280653951</v>
+      </c>
+      <c r="C80">
+        <v>20</v>
+      </c>
+      <c r="D80">
+        <v>20</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81">
+        <v>0.0510752688172043</v>
+      </c>
+      <c r="C81">
+        <v>19</v>
+      </c>
+      <c r="D81">
+        <v>19</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="b">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B82">
+        <v>0.04678111587982833</v>
+      </c>
+      <c r="C82">
+        <v>109</v>
+      </c>
+      <c r="D82">
+        <v>111</v>
+      </c>
+      <c r="E82">
+        <v>0.02</v>
+      </c>
+      <c r="F82">
+        <v>0.98</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B83">
+        <v>0.04674796747967479</v>
+      </c>
+      <c r="C83">
+        <v>23</v>
+      </c>
+      <c r="D83">
+        <v>23</v>
+      </c>
+      <c r="E83">
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="b">
+        <v>0</v>
+      </c>
+      <c r="H83">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>0.04563233376792699</v>
+      </c>
+      <c r="C84">
+        <v>35</v>
+      </c>
+      <c r="D84">
+        <v>35</v>
+      </c>
+      <c r="E84">
+        <v>0</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B85">
+        <v>0.04481792717086835</v>
+      </c>
+      <c r="C85">
         <v>16</v>
       </c>
-      <c r="E65">
+      <c r="D85">
+        <v>16</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B86">
+        <v>0.04393647023897877</v>
+      </c>
+      <c r="C86">
+        <v>296</v>
+      </c>
+      <c r="D86">
+        <v>304</v>
+      </c>
+      <c r="E86">
+        <v>0.03</v>
+      </c>
+      <c r="F86">
+        <v>0.97</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>6441</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B87">
+        <v>0.04390243902439024</v>
+      </c>
+      <c r="C87">
+        <v>18</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B88">
+        <v>0.04353741496598639</v>
+      </c>
+      <c r="C88">
+        <v>32</v>
+      </c>
+      <c r="D88">
+        <v>32</v>
+      </c>
+      <c r="E88">
+        <v>0</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B89">
+        <v>0.04157549234135667</v>
+      </c>
+      <c r="C89">
+        <v>19</v>
+      </c>
+      <c r="D89">
+        <v>19</v>
+      </c>
+      <c r="E89">
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B90">
+        <v>0.04124860646599777</v>
+      </c>
+      <c r="C90">
+        <v>37</v>
+      </c>
+      <c r="D90">
+        <v>38</v>
+      </c>
+      <c r="E90">
+        <v>0.03</v>
+      </c>
+      <c r="F90">
+        <v>0.97</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B91">
+        <v>0.03747534516765286</v>
+      </c>
+      <c r="C91">
+        <v>19</v>
+      </c>
+      <c r="D91">
+        <v>19</v>
+      </c>
+      <c r="E91">
+        <v>0</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="b">
+        <v>0</v>
+      </c>
+      <c r="H91">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B92">
+        <v>0.03676470588235294</v>
+      </c>
+      <c r="C92">
+        <v>15</v>
+      </c>
+      <c r="D92">
+        <v>16</v>
+      </c>
+      <c r="E92">
         <v>0.06</v>
       </c>
-      <c r="F65">
+      <c r="F92">
         <v>0.9399999999999999</v>
       </c>
-      <c r="G65" t="b">
-        <v>1</v>
-      </c>
-      <c r="H65">
-        <v>1141</v>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93">
+        <v>0.03533515316954807</v>
+      </c>
+      <c r="C93">
+        <v>233</v>
+      </c>
+      <c r="D93">
+        <v>239</v>
+      </c>
+      <c r="E93">
+        <v>0.03</v>
+      </c>
+      <c r="F93">
+        <v>0.97</v>
+      </c>
+      <c r="G93" t="b">
+        <v>1</v>
+      </c>
+      <c r="H93">
+        <v>6361</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B94">
+        <v>0.03532008830022075</v>
+      </c>
+      <c r="C94">
+        <v>16</v>
+      </c>
+      <c r="D94">
+        <v>16</v>
+      </c>
+      <c r="E94">
+        <v>0</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="b">
+        <v>0</v>
+      </c>
+      <c r="H94">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95">
+        <v>0.03448275862068965</v>
+      </c>
+      <c r="C95">
+        <v>49</v>
+      </c>
+      <c r="D95">
+        <v>50</v>
+      </c>
+      <c r="E95">
+        <v>0.02</v>
+      </c>
+      <c r="F95">
+        <v>0.98</v>
+      </c>
+      <c r="G95" t="b">
+        <v>1</v>
+      </c>
+      <c r="H95">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>0.03137478608100399</v>
+      </c>
+      <c r="C96">
+        <v>55</v>
+      </c>
+      <c r="D96">
+        <v>57</v>
+      </c>
+      <c r="E96">
+        <v>0.04</v>
+      </c>
+      <c r="F96">
+        <v>0.96</v>
+      </c>
+      <c r="G96" t="b">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1698</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97">
+        <v>0.03114754098360656</v>
+      </c>
+      <c r="C97">
+        <v>19</v>
+      </c>
+      <c r="D97">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="b">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98">
+        <v>0.02921646746347941</v>
+      </c>
+      <c r="C98">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>23</v>
+      </c>
+      <c r="E98">
+        <v>0.04</v>
+      </c>
+      <c r="F98">
+        <v>0.96</v>
+      </c>
+      <c r="G98" t="b">
+        <v>1</v>
+      </c>
+      <c r="H98">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99">
+        <v>0.02917962209997608</v>
+      </c>
+      <c r="C99">
+        <v>122</v>
+      </c>
+      <c r="D99">
+        <v>124</v>
+      </c>
+      <c r="E99">
+        <v>0.02</v>
+      </c>
+      <c r="F99">
+        <v>0.98</v>
+      </c>
+      <c r="G99" t="b">
+        <v>1</v>
+      </c>
+      <c r="H99">
+        <v>4059</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100">
+        <v>0.02863478596220594</v>
+      </c>
+      <c r="C100">
+        <v>297</v>
+      </c>
+      <c r="D100">
+        <v>307</v>
+      </c>
+      <c r="E100">
+        <v>0.03</v>
+      </c>
+      <c r="F100">
+        <v>0.97</v>
+      </c>
+      <c r="G100" t="b">
+        <v>1</v>
+      </c>
+      <c r="H100">
+        <v>10075</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B101">
+        <v>0.02608695652173913</v>
+      </c>
+      <c r="C101">
+        <v>15</v>
+      </c>
+      <c r="D101">
+        <v>17</v>
+      </c>
+      <c r="E101">
+        <v>0.12</v>
+      </c>
+      <c r="F101">
+        <v>0.88</v>
+      </c>
+      <c r="G101" t="b">
+        <v>1</v>
+      </c>
+      <c r="H101">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B102">
+        <v>0.02372881355932203</v>
+      </c>
+      <c r="C102">
+        <v>28</v>
+      </c>
+      <c r="D102">
+        <v>28</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="b">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B103">
+        <v>0.02147340601255368</v>
+      </c>
+      <c r="C103">
+        <v>65</v>
+      </c>
+      <c r="D103">
+        <v>68</v>
+      </c>
+      <c r="E103">
+        <v>0.04</v>
+      </c>
+      <c r="F103">
+        <v>0.96</v>
+      </c>
+      <c r="G103" t="b">
+        <v>1</v>
+      </c>
+      <c r="H103">
+        <v>2962</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B104">
+        <v>0.02018163471241171</v>
+      </c>
+      <c r="C104">
+        <v>20</v>
+      </c>
+      <c r="D104">
+        <v>20</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="b">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B105">
+        <v>0.01905742982230235</v>
+      </c>
+      <c r="C105">
+        <v>74</v>
+      </c>
+      <c r="D105">
+        <v>78</v>
+      </c>
+      <c r="E105">
+        <v>0.05</v>
+      </c>
+      <c r="F105">
+        <v>0.95</v>
+      </c>
+      <c r="G105" t="b">
+        <v>1</v>
+      </c>
+      <c r="H105">
+        <v>3809</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B106">
+        <v>0.01725790987535954</v>
+      </c>
+      <c r="C106">
+        <v>18</v>
+      </c>
+      <c r="D106">
+        <v>20</v>
+      </c>
+      <c r="E106">
+        <v>0.1</v>
+      </c>
+      <c r="F106">
+        <v>0.9</v>
+      </c>
+      <c r="G106" t="b">
+        <v>1</v>
+      </c>
+      <c r="H106">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B107">
+        <v>0.01678719008264463</v>
+      </c>
+      <c r="C107">
+        <v>65</v>
+      </c>
+      <c r="D107">
+        <v>71</v>
+      </c>
+      <c r="E107">
+        <v>0.08</v>
+      </c>
+      <c r="F107">
+        <v>0.92</v>
+      </c>
+      <c r="G107" t="b">
+        <v>1</v>
+      </c>
+      <c r="H107">
+        <v>3807</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B108">
+        <v>0.01511811023622047</v>
+      </c>
+      <c r="C108">
+        <v>48</v>
+      </c>
+      <c r="D108">
+        <v>58</v>
+      </c>
+      <c r="E108">
+        <v>0.17</v>
+      </c>
+      <c r="F108">
+        <v>0.83</v>
+      </c>
+      <c r="G108" t="b">
+        <v>1</v>
+      </c>
+      <c r="H108">
+        <v>3127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B109">
+        <v>0.01460120459937945</v>
+      </c>
+      <c r="C109">
+        <v>80</v>
+      </c>
+      <c r="D109">
+        <v>90</v>
+      </c>
+      <c r="E109">
+        <v>0.11</v>
+      </c>
+      <c r="F109">
+        <v>0.89</v>
+      </c>
+      <c r="G109" t="b">
+        <v>1</v>
+      </c>
+      <c r="H109">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110">
+        <v>0.01062660315133749</v>
+      </c>
+      <c r="C110">
+        <v>29</v>
+      </c>
+      <c r="D110">
+        <v>30</v>
+      </c>
+      <c r="E110">
+        <v>0.03</v>
+      </c>
+      <c r="F110">
+        <v>0.97</v>
+      </c>
+      <c r="G110" t="b">
+        <v>1</v>
+      </c>
+      <c r="H110">
+        <v>2700</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B111">
+        <v>0.006702103073723134</v>
+      </c>
+      <c r="C111">
+        <v>29</v>
+      </c>
+      <c r="D111">
+        <v>40</v>
+      </c>
+      <c r="E111">
+        <v>0.28</v>
+      </c>
+      <c r="F111">
+        <v>0.72</v>
+      </c>
+      <c r="G111" t="b">
+        <v>1</v>
+      </c>
+      <c r="H111">
+        <v>4298</v>
       </c>
     </row>
   </sheetData>
